--- a/Design/도박중독용사 기획서.xlsx
+++ b/Design/도박중독용사 기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2576A7-4E60-4E8B-B13F-3473F3779A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A9D3EB-0D76-46D7-8012-816F07718549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" firstSheet="3" activeTab="3" xr2:uid="{BC439D39-6C2F-4453-A38F-43E7A8D2503B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BC439D39-6C2F-4453-A38F-43E7A8D2503B}"/>
   </bookViews>
   <sheets>
     <sheet name="0. 메인" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="353">
   <si>
     <t>도박중독용사 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네모칸에는 그림이 빠른 속도로로 돌아가며 원을 한번 클릭시 왼쪽 네모부터 한개씩 차례대로 멈춤, 총 세번 클릭 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 경마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그림 2 : 말 선택 시 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배팅 금액을 고르고 말을 선택하면 승률과 배당률 글자가 사라지고 말들이 이동하기 시작한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>말 선택 시, 승리할 말을 선택한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>승리할 말은 이동속도가 제일 빠르며, 나머지는 그보다 느리게 무작위 속도로 움직인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,22 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위쪽이 딜러, 아래쪽이 플레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란색이 뒤집어진 카드, 하얀색이 앞면 카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽원이 카드 한장 더 받기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른쪽 원이 결과 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 복권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,14 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복권은 6개의 숫자로 이루어져 있으며, 숫자는 0~9까지 총 10종류다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫번쨰 숫자를 선택했을 때 복권 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>복권 클릭시 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,30 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공백 : 배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맨 위 하얀 네모 : 골드, 칩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째 줄 하얀 네모 : 전투력, 레벨, 선조의 축복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 하얀 원 : 환경설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 노란색 네모 : 스트레스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란색 네모 : 위부터 던전, 도박, 상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Touch screen to start는 깜빡거림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,38 +640,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세번째 줄 점선 네모 : 버프, 디버프 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-2. 환경설정 선택시 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수치 : 0 ~ 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임종료 버튼을 누르면 게임종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경 설정 팝업 외부를 터치하면 환경설정 팝업이 꺼짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 팝업 우측 위 원을 누르면 이벤트 팝업이 꺼짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경설정 우측 원을 누르면 환경설정 팝업이 꺼짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 팝업 외부를 터치하면 이벤트 팝업이 꺼짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 도박, 던전, 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,10 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우측 하얀 사각형 : 이번주 세금 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 일반 몬스터, 전투력*0.2의 골드를 지급한다, 처치시 스트레스 1을 획득한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,18 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">금일 가능한 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경음악, 효과음은 슬라이드로 조절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 하얀 작은 사각형 : 하루 넘기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도박 비용 : 1칩, 스트레스 -10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,10 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그림은 총 다섯가지(7, 사과, 키위, 수박, 딸기), 세개 전부 7이면 100칩 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전투력이 50000단위 아래로 감소할 경우 가격이 감소한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -993,6 +885,570 @@
   </si>
   <si>
     <t>도박 승리 보상 1.1배, 3일동안 유지된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유한 골드 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유한 칩 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 전투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선조의 축복 스탯 창(6번)을 보여줌</t>
+  </si>
+  <si>
+    <t>선조의 축복 스탯 창(6번)을 꺼줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 종료 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일이 지나감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설정 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선조의 축복 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설정 창을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function(버튼 클릭시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 설명 창(11번)을 꺼줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 창(11번)을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 주 세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 입장 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 창 띄움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도박 입장 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도박 창 띄움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 입장 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 창 띄움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임화면 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선조의 축복 스탯 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 내용 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/디버프 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/디버프 설명 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/디버프 설명 닫기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 내용 창 닫기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선조의 축복 스탯 닫기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 내용 창(19번)을 꺼줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지의 진행상황을 저장하고 게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음 조절 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음악 조절 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경설정 창 닫기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경설정 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누른채로 이동(슬라이드)하면 소리 조절(좌 : 100%, 우 : 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※이벤트 창이 켜져있을 때 이벤트 창, 이벤트 내용 창 닫기 버튼 외 부분을 클릭했을 때 이벤트 창 꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※환경설정 창이 켜져있을 때 환경설정 창 구성요소 외 부분을 클릭했을 때 환경설정 창 꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬롯머신 창 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬롯머신 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾹 잡고 내렸다 올리면 그림 하나가 멈춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 슬롯머신을 켜면 3,4,5 이미지가 위에서 아래에서 위로 회전하고 있으며 레버(2번)을 당길때마다 순서대로 멈춘다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬롯 머신 창을 닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬롯머신 그림1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬롯머신 그림2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬롯머신 그림3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림은 총 다섯가지(7, 사과, 키위, 수박, 딸기), 세개 전부 7이면 1000칩 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버는 항상 위를 향하고 있으며 끝까지 내리지 않고 중간에서 마우스를 뗄 경우 그림이 멈추지 않고 다시 맨 위로 올라간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도박 비용 칩은 처음 레버를 당기자 마자 차감되며 레버를 전부 당기지 않은 채로 화면을 끌시 상태가 초기화된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경마 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색 말 승률과 배당률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색 말 승률과 배당률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색 말 승률과 배당률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색 말 승률과 배당률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색 말 선택 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색 말 선택 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색 말 선택 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색 말 선택 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배팅할 칩 개수 내리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배팅할 칩 개수 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경마 시작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색 말 선택 버튼 외 말 선택 버튼 반투명해짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색 말 선택 버튼 외 말 선택 버튼 반투명해짐</t>
+  </si>
+  <si>
+    <t>회색 말 선택 버튼 외 말 선택 버튼 반투명해짐</t>
+  </si>
+  <si>
+    <t>검은색 말 선택 버튼 외 말 선택 버튼 반투명해짐</t>
+  </si>
+  <si>
+    <t>배팅할 칩 개수를 1 내린다. 10 이하로는 내려가지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배팅할 칩 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배팅할 칩 개수를 1 올린다. 소유한 칩 개수 이상으로는 올릴 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경마를 시작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경마 창 닫기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경마 창을 닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림 2 : 갈색 말 선택 후 패배시 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색말을 선택한 후 게임을 진행하였을 때 화면이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 결과에 따라 '패배', '승리'문구가 상단에 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리 시 보상은 즉시 지급한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경마 창 닫기 버튼(14)을 누르면 경마 창을 닫는 대신 게임 처음 입장 시 화면으로 초기화 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경마 시작하기 버튼(13)은 더 이상 누를 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 선택 버튼(6,7,8,9)은 게임이 진행 된 후 더 이상 누를 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙잭 창 닫기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨겨진 딜러 카드(뒷면)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개된 딜러 카드(앞면)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 한장 더 받기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 보기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러의 카드를 공개하고 결과를 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 카드 한장을 더 지급한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙잭 창을 닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배팅할 칩 개수를 1 내린다. 1이하로는 내려가지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 1 올리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 1 내리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 2 올리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 2 내리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 3 올리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 3 내리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 4 올리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 4 내리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 5 올리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 5 내리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 6 올리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 6 내리기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 창 닫기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 구매 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권은 6개의 숫자로 이루어져 있으며, 숫자는 0~9까지 총 10종류다, 숫자 기본값은 0이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 1 올리기 버튼(2번), 복권 숫자 1 내리기 버튼(3번)을 표시한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 2 올리기 버튼(5번), 복권 숫자 1 내리기 버튼(6번)을 표시한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 3 올리기 버튼(8번), 복권 숫자 1 내리기 버튼(9번)을 표시한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 4 올리기 버튼(11번), 복권 숫자 1 내리기 버튼(12번)을 표시한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 5 올리기 버튼(14번), 복권 숫자 1 내리기 버튼(15번)을 표시한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 6 올리기 버튼(17번), 복권 숫자 1 내리기 버튼(18번)을 표시한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 1을 1 올린다. 9일시 0이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 2을 1 올린다. 9일시 0이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 3을 1 올린다. 9일시 0이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 4를 1 올린다. 9일시 0이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 5를 1 올린다. 9일시 0이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 6을 1 올린다. 9일시 0이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 1을 1 내린다. 0일시 9가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 2을 1 내린다. 0일시 9가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 3을 1 내린다. 0일시 9가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 4를 1 내린다. 0일시 9가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 5를 1 내린다. 0일시 9가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 숫자 6을 1 내린다. 0일시 9가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자를 조절하는 화살표들은 처음에 표시되지 않으며 숫자를 클릭하면 해당하는 숫자의 화살표가 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 숫자를 클릭하면 기존에 표시된 화살표는 사라지며 해당하는 숫자의 화살표가 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 배경을 선택하면 화살표는 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 창을 닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권을 구매한다. 같은 숫자의 복권은 구매할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도박 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1226,13 +1682,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,7 +1824,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,13 +1863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1305,14 +1878,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,8 +2048,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1507,15 +2092,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>25262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1569,22 +2154,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>12557</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>82126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38290</xdr:colOff>
+      <xdr:colOff>144343</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B863C375-6AB3-A88E-1018-0319F78497D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3AD912-EE12-0634-7A96-A3D6977C0388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,8 +2192,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="698357" y="11182349"/>
-          <a:ext cx="3454733" cy="4695825"/>
+          <a:off x="762000" y="11188276"/>
+          <a:ext cx="3497143" cy="4718474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1629,23 +2214,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38189</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30798</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19555</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2954C39-9F16-0F6E-D965-8E36A41AAA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CE1C44-B78F-DCBE-B0AA-3B266EF1AB89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,8 +2253,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4838789" y="11239499"/>
-          <a:ext cx="3410366" cy="4638676"/>
+          <a:off x="716598" y="16411575"/>
+          <a:ext cx="3398202" cy="4629150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,23 +2275,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>139021</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>45577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>148587</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12">
+        <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9645F80-86B7-6D72-9F39-2B4D4342A6AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C93E4D1-E2E2-F9DE-6DEB-4CC34200F5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,8 +2314,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8905874" y="11245171"/>
-          <a:ext cx="3257551" cy="4410116"/>
+          <a:off x="704850" y="21629227"/>
+          <a:ext cx="3305174" cy="4478797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1756,198 +2341,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>645348</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F817ADB4-65E3-1FF9-BBE8-D04E4592BAEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="695325" y="428626"/>
-          <a:ext cx="3379023" cy="1771649"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>7966</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96E86E6-7A70-52C2-5B59-71E0613CB5D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7543802" y="4648200"/>
-          <a:ext cx="6180164" cy="3438525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>136377</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEAF709-B0AC-2A67-2BBD-E30365448D50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="752476" y="4714876"/>
-          <a:ext cx="5705474" cy="3174852"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>302507</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1964,7 +2366,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2000,198 +2402,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>678627</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>375107</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809E23FE-D013-606F-65FB-B01DDF81D7D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7536627" y="14287500"/>
-          <a:ext cx="2439680" cy="4410075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>119504</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FDA346-0E38-B098-C086-9B0E44C152B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6858000" y="20026754"/>
-          <a:ext cx="5772150" cy="2995171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>48039</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>530416</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B59142-1381-0DB0-5F35-10A661792396}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="733424" y="19745739"/>
-          <a:ext cx="5283392" cy="2723736"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2233,13 +2452,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2281,13 +2500,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31703</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>20713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2304,7 +2523,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2342,13 +2561,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>13667</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>813767</xdr:colOff>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>160684</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2365,7 +2584,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2403,13 +2622,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>396324</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510624</xdr:colOff>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>1243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2418,6 +2637,372 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C981CAAA-D9F5-C55A-0C78-8DF2685FB6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="712305" y="32310457"/>
+          <a:ext cx="6558584" cy="3098938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15235</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02C1683-BC09-3613-1ADE-38A41043D9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="701035" y="5486400"/>
+          <a:ext cx="3023240" cy="5362575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23372</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586BE2A0-4143-F022-530C-97C8E27D2093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="709172" y="12820650"/>
+          <a:ext cx="3662803" cy="6505575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>14307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5F57C4-1F69-4F9D-F7D6-4EF0C3EBFD50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714374" y="22017057"/>
+          <a:ext cx="3895725" cy="7005617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>682024</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6F0632-3324-A464-2DF7-CEA1F0354951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="682024" y="41109900"/>
+          <a:ext cx="3585176" cy="6410325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>663043</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>198607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D4EA6D-CE18-7BE2-72C1-A91C28F51FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="663043" y="33585150"/>
+          <a:ext cx="4089932" cy="7266157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411140AC-4561-6B4B-9115-35C05DD8A5B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,8 +3025,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="712305" y="32310457"/>
-          <a:ext cx="6558584" cy="3098938"/>
+          <a:off x="1962150" y="6867525"/>
+          <a:ext cx="4476750" cy="8029575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>684229</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>44869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C7127F-6496-FB58-6E5C-BE468BEBBF83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="684229" y="48444150"/>
+          <a:ext cx="3859196" cy="6921919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2955,190 +3601,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A8EEA7-3D50-4D0B-9629-E5029DD52ADB}">
   <dimension ref="D1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="4:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="15"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D3" s="16"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="17"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="17"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="20"/>
     </row>
     <row r="6" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="17"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D7" s="16"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="17"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D8" s="16"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="17"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="4:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="26"/>
     </row>
     <row r="10" spans="4:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="4:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3146,172 +3792,176 @@
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="26"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D14" s="8">
         <v>0.1</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="4"/>
       <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
+      <c r="Q14" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="29"/>
     </row>
     <row r="15" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="D15" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="4"/>
       <c r="P15" s="3">
         <v>2</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="17"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="4"/>
       <c r="P16" s="3">
         <v>3</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="17"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="20"/>
     </row>
     <row r="17" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D17" s="8"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="4"/>
       <c r="P17" s="3">
         <v>4</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="17"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D18" s="8"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="4"/>
       <c r="P18" s="3">
         <v>5</v>
       </c>
-      <c r="Q18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="17"/>
+      <c r="Q18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="20"/>
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D19" s="8"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="4"/>
       <c r="P19" s="3">
         <v>6</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="17"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="20"/>
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="4"/>
       <c r="P20" s="3">
         <v>7</v>
@@ -3320,12 +3970,12 @@
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D21" s="8"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="4"/>
       <c r="P21" s="3">
         <v>8</v>
@@ -3334,12 +3984,12 @@
     </row>
     <row r="22" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D22" s="8"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="4"/>
       <c r="P22" s="3">
         <v>9</v>
@@ -3348,12 +3998,12 @@
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D23" s="8"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="4"/>
       <c r="P23" s="3">
         <v>10</v>
@@ -3362,84 +4012,84 @@
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D24" s="8"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="4"/>
       <c r="P24" s="3"/>
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="4"/>
       <c r="P25" s="3"/>
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="4"/>
       <c r="P26" s="3"/>
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="4"/>
       <c r="P27" s="3"/>
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="4"/>
       <c r="P28" s="3"/>
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="4"/>
       <c r="P29" s="3"/>
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="4:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="9"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="7"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
@@ -3453,6 +4103,16 @@
     <row r="31" spans="4:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="D2:W9"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="Q14:W14"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="P13:W13"/>
@@ -3469,16 +4129,6 @@
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="D2:W9"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="Q14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3487,154 +4137,473 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C802CE-25A1-4FDE-BC8D-74C102F0E9AF}">
-  <dimension ref="B2:N112"/>
+  <dimension ref="B2:T133"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78:K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="34.5" customWidth="1"/>
+    <col min="11" max="11" width="57.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H54" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="L54" s="14"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H55" s="12">
+        <v>1</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="30"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H56" s="12">
+        <v>2</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H57" s="12">
+        <v>3</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="K57" s="31"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H58" s="12">
+        <v>4</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K58" s="32"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H59" s="12">
+        <v>5</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H60" s="12">
+        <v>6</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H61" s="12">
+        <v>7</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H62" s="12">
+        <v>8</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H63" s="12">
+        <v>9</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H64" s="12">
+        <v>10</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H65" s="12">
+        <v>11</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H66" s="12">
+        <v>12</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H67" s="12">
+        <v>13</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H68" s="12">
+        <v>14</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H69" s="12">
+        <v>15</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H70" s="12">
+        <v>16</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H71" s="12">
+        <v>17</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K71" s="30"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H72" s="12">
+        <v>18</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K72" s="32"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H79" s="12">
+        <v>19</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H80" s="12">
+        <v>20</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>149</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K103" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H104" s="12">
+        <v>21</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H105" s="12">
+        <v>22</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H106" s="12">
+        <v>23</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H107" s="12">
+        <v>24</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H108" s="12">
+        <v>25</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="K108" s="13"/>
+      <c r="T108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T133" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H53" t="s">
-        <v>163</v>
-      </c>
-      <c r="N53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="H77" t="s">
-        <v>169</v>
-      </c>
-      <c r="N77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>157</v>
-      </c>
-      <c r="H78" t="s">
-        <v>171</v>
-      </c>
-      <c r="N78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>158</v>
-      </c>
-      <c r="N79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>164</v>
-      </c>
-      <c r="N80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>174</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K71:K72"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3643,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6CD3C6-F51F-47F5-8D0C-27539412C619}">
-  <dimension ref="D2:E19"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3654,114 +4623,114 @@
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="10"/>
-      <c r="E18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="10"/>
-      <c r="E19" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3774,7 +4743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1F499D-B207-4A43-B8B7-30F0CB694111}">
   <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3798,7 +4767,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -3826,7 +4795,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -3837,28 +4806,28 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -3866,15 +4835,15 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -3882,7 +4851,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -3890,7 +4859,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -3898,26 +4867,26 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3928,414 +4897,1192 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6569B4A8-371C-4450-88AD-6774A0302567}">
-  <dimension ref="B2:P185"/>
+  <dimension ref="B2:K342"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276:J342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G33" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G35" s="12">
+        <v>2</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="12">
+        <v>3</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G37" s="12">
+        <v>4</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G38" s="12">
+        <v>5</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="L43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>55</v>
-      </c>
-      <c r="P72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>56</v>
-      </c>
-      <c r="P73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="P74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>61</v>
-      </c>
-      <c r="P75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>77</v>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H63" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H64" s="12">
+        <v>1</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K64" s="30"/>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H65" s="12">
+        <v>2</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="K65" s="31"/>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H66" s="12">
+        <v>3</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="K66" s="31"/>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H67" s="12">
+        <v>4</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K67" s="31"/>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H68" s="12">
+        <v>5</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="K68" s="32"/>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H69" s="12">
+        <v>6</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H70" s="12">
+        <v>7</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H71" s="12">
+        <v>8</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H72" s="12">
+        <v>9</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H73" s="12">
+        <v>10</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H74" s="12">
+        <v>11</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H75" s="12">
+        <v>12</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H76" s="12">
+        <v>13</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H77" s="12">
+        <v>14</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K97" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>110</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H161" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J161" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K161" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H162" s="12">
+        <v>1</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J162" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K162" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H163" s="12">
+        <v>2</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="K163" s="33"/>
+    </row>
+    <row r="164" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H164" s="12">
+        <v>3</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J164" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K164" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="197" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H197" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I197" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J197" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K197" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H198" s="12">
+        <v>1</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J198" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="K198" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="199" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H199" s="12">
+        <v>2</v>
+      </c>
+      <c r="I199" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J199" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="K199" s="34"/>
+    </row>
+    <row r="200" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H200" s="12">
+        <v>3</v>
+      </c>
+      <c r="I200" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J200" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="K200" s="34"/>
+    </row>
+    <row r="201" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H201" s="12">
+        <v>4</v>
+      </c>
+      <c r="I201" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J201" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K201" s="34"/>
+    </row>
+    <row r="202" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H202" s="12">
+        <v>5</v>
+      </c>
+      <c r="I202" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J202" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K202" s="34"/>
+    </row>
+    <row r="203" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H203" s="12">
+        <v>6</v>
+      </c>
+      <c r="I203" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J203" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K203" s="34"/>
+    </row>
+    <row r="204" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H204" s="12">
+        <v>7</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J204" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="K204" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="205" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H205" s="12">
+        <v>8</v>
+      </c>
+      <c r="I205" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J205" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="K205" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H232" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I232" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J232" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K232" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H233" s="12">
+        <v>1</v>
+      </c>
+      <c r="I233" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J233" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K233" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H234" s="12">
+        <v>2</v>
+      </c>
+      <c r="I234" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J234" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K234" s="35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H235" s="12">
+        <v>3</v>
+      </c>
+      <c r="I235" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J235" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="K235" s="35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H236" s="12">
+        <v>4</v>
+      </c>
+      <c r="I236" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J236" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="K236" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H237" s="12">
+        <v>5</v>
+      </c>
+      <c r="I237" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J237" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K237" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H238" s="12">
+        <v>6</v>
+      </c>
+      <c r="I238" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J238" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="K238" s="35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H239" s="12">
+        <v>7</v>
+      </c>
+      <c r="I239" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J239" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K239" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H240" s="12">
+        <v>8</v>
+      </c>
+      <c r="I240" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J240" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K240" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="241" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H241" s="12">
+        <v>9</v>
+      </c>
+      <c r="I241" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J241" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K241" s="36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="242" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H242" s="12">
+        <v>10</v>
+      </c>
+      <c r="I242" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J242" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="K242" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="243" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H243" s="12">
+        <v>11</v>
+      </c>
+      <c r="I243" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J243" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="K243" s="36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="244" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H244" s="12">
+        <v>12</v>
+      </c>
+      <c r="I244" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J244" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="K244" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="245" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H245" s="12">
+        <v>13</v>
+      </c>
+      <c r="I245" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J245" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K245" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="246" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H246" s="12">
+        <v>14</v>
+      </c>
+      <c r="I246" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J246" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K246" s="36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="247" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H247" s="12">
+        <v>15</v>
+      </c>
+      <c r="I247" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J247" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="K247" s="36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="248" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H248" s="12">
+        <v>16</v>
+      </c>
+      <c r="I248" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J248" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K248" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="249" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H249" s="12">
+        <v>17</v>
+      </c>
+      <c r="I249" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J249" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K249" s="36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="250" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H250" s="12">
+        <v>18</v>
+      </c>
+      <c r="I250" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J250" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="K250" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="251" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H251" s="12">
+        <v>19</v>
+      </c>
+      <c r="I251" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J251" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="K251" s="36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="252" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H252" s="12">
+        <v>20</v>
+      </c>
+      <c r="I252" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J252" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K252" s="36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" t="s">
-        <v>109</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="K64:K68"/>
+    <mergeCell ref="K199:K203"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4346,7 +6093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAB4EE2-ADD5-4FBF-A2A9-E78DCB8158C6}">
   <dimension ref="B2:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -4354,122 +6101,122 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +6230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFA66EF-094F-4EC3-934A-1809BBC597B8}">
   <dimension ref="B2:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4494,177 +6241,177 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Design/도박중독용사 기획서.xlsx
+++ b/Design/도박중독용사 기획서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dobakHero\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A9D3EB-0D76-46D7-8012-816F07718549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DF8E07-A358-48F2-9700-BB0B3F20FFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BC439D39-6C2F-4453-A38F-43E7A8D2503B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" firstSheet="3" activeTab="6" xr2:uid="{BC439D39-6C2F-4453-A38F-43E7A8D2503B}"/>
   </bookViews>
   <sheets>
     <sheet name="0. 메인" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="366">
   <si>
     <t>도박중독용사 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,10 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전투력이 50000단위 아래로 감소할 경우 가격이 감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-2. 무기 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1449,6 +1445,62 @@
   </si>
   <si>
     <t>도박 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 칩 구매소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩 구매소 창 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩 구매소 창을 닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 혹은 판매 할 칩의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩 개수 늘리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩 구매 혹은 판매 개수를 1 늘린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩 개수 줄이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩 구매 혹은 판매 개수를 1 줄인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 칩 개수에 해당하는 골드 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩 구매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩 판매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 개수의 칩을 구매한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 개수의 칩을 판매한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1492,7 +1544,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1781,6 +1833,32 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1831,6 +1909,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1887,17 +1974,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2986,67 +3064,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411140AC-4561-6B4B-9115-35C05DD8A5B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1962150" y="6867525"/>
-          <a:ext cx="4476750" cy="8029575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>684229</xdr:colOff>
       <xdr:row>231</xdr:row>
@@ -3088,6 +3105,67 @@
         <a:xfrm>
           <a:off x="684229" y="48444150"/>
           <a:ext cx="3859196" cy="6921919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11721</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>194910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75196E63-B307-5BE5-345D-446DA6088994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="697521" y="72113775"/>
+          <a:ext cx="3864953" cy="6871935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3601,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A8EEA7-3D50-4D0B-9629-E5029DD52ADB}">
   <dimension ref="D1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -3609,182 +3687,182 @@
   <sheetData>
     <row r="1" spans="4:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="26"/>
     </row>
     <row r="3" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D3" s="24"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="20"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="4" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D4" s="24"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="20"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D5" s="24"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="20"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D6" s="24"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="20"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D7" s="24"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="20"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D8" s="24"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="20"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="4:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="25"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="29"/>
     </row>
     <row r="10" spans="4:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="4:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3792,176 +3870,176 @@
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="19"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="22"/>
     </row>
     <row r="14" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D14" s="8">
         <v>0.1</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="4"/>
       <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="29"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="32"/>
     </row>
     <row r="15" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D15" s="8">
         <v>0.2</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="E15" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="4"/>
       <c r="P15" s="3">
         <v>2</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="20"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="4"/>
       <c r="P16" s="3">
         <v>3</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="20"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="23"/>
     </row>
     <row r="17" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="4"/>
       <c r="P17" s="3">
         <v>4</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="20"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="4"/>
       <c r="P18" s="3">
         <v>5</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="20"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="4"/>
       <c r="P19" s="3">
         <v>6</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="20"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="23"/>
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="4"/>
       <c r="P20" s="3">
         <v>7</v>
@@ -3970,12 +4048,12 @@
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="4"/>
       <c r="P21" s="3">
         <v>8</v>
@@ -3984,12 +4062,12 @@
     </row>
     <row r="22" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="4"/>
       <c r="P22" s="3">
         <v>9</v>
@@ -3998,12 +4076,12 @@
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="4"/>
       <c r="P23" s="3">
         <v>10</v>
@@ -4012,84 +4090,84 @@
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="4"/>
       <c r="P24" s="3"/>
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="4"/>
       <c r="P25" s="3"/>
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="4"/>
       <c r="P26" s="3"/>
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="4"/>
       <c r="P27" s="3"/>
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="4"/>
       <c r="P28" s="3"/>
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="4"/>
       <c r="P29" s="3"/>
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="4:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="9"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="7"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
@@ -4201,16 +4279,16 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H54" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I54" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="J54" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L54" s="14"/>
     </row>
@@ -4219,61 +4297,61 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="K55" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H56" s="12">
         <v>2</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K56" s="31"/>
+        <v>216</v>
+      </c>
+      <c r="K56" s="34"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H57" s="12">
         <v>3</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="K57" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="K57" s="34"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H58" s="12">
         <v>4</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K58" s="32"/>
+        <v>218</v>
+      </c>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H59" s="12">
         <v>5</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
@@ -4281,10 +4359,10 @@
         <v>6</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4293,13 +4371,13 @@
         <v>7</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
@@ -4307,13 +4385,13 @@
         <v>8</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J62" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
@@ -4321,13 +4399,13 @@
         <v>9</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
@@ -4335,13 +4413,13 @@
         <v>10</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
@@ -4349,10 +4427,10 @@
         <v>11</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K65" s="13"/>
     </row>
@@ -4361,13 +4439,13 @@
         <v>12</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
@@ -4375,10 +4453,10 @@
         <v>13</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K67" s="13"/>
     </row>
@@ -4387,13 +4465,13 @@
         <v>14</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J68" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
@@ -4401,13 +4479,13 @@
         <v>15</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J69" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
@@ -4415,13 +4493,13 @@
         <v>16</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J70" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
@@ -4429,40 +4507,40 @@
         <v>17</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="K71" s="30"/>
+        <v>236</v>
+      </c>
+      <c r="K71" s="33"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H72" s="12">
         <v>18</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="K72" s="32"/>
+        <v>237</v>
+      </c>
+      <c r="K72" s="35"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>148</v>
       </c>
       <c r="H78" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I78" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I78" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="J78" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
@@ -4470,10 +4548,10 @@
         <v>19</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K79" s="12"/>
     </row>
@@ -4482,18 +4560,18 @@
         <v>20</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.3">
@@ -4501,16 +4579,16 @@
         <v>149</v>
       </c>
       <c r="H103" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I103" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I103" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="J103" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.3">
@@ -4518,13 +4596,13 @@
         <v>21</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J104" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K104" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="K104" s="12" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.3">
@@ -4532,13 +4610,13 @@
         <v>22</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.3">
@@ -4546,13 +4624,13 @@
         <v>23</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.3">
@@ -4560,13 +4638,13 @@
         <v>24</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J107" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="K107" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.3">
@@ -4574,10 +4652,10 @@
         <v>25</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K108" s="13"/>
       <c r="T108" t="s">
@@ -4586,7 +4664,7 @@
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="20:20" x14ac:dyDescent="0.3">
@@ -4806,28 +4884,28 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -4835,15 +4913,15 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -4851,7 +4929,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -4859,7 +4937,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -4867,26 +4945,26 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
         <v>192</v>
-      </c>
-      <c r="C19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
         <v>194</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4897,10 +4975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6569B4A8-371C-4450-88AD-6774A0302567}">
-  <dimension ref="B2:K342"/>
+  <dimension ref="B2:K354"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276:J342"/>
+    <sheetView topLeftCell="A350" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K349" sqref="K349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4957,12 +5035,12 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
@@ -4972,26 +5050,26 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="I33" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
@@ -4999,13 +5077,13 @@
         <v>1</v>
       </c>
       <c r="H34" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>258</v>
-      </c>
       <c r="J34" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
@@ -5013,13 +5091,13 @@
         <v>2</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I35" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
@@ -5027,36 +5105,36 @@
         <v>3</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="J36" s="30"/>
+        <v>262</v>
+      </c>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" s="12">
         <v>4</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="J37" s="31"/>
+        <v>263</v>
+      </c>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G38" s="12">
         <v>5</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="J38" s="32"/>
+        <v>264</v>
+      </c>
+      <c r="J38" s="35"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
@@ -5070,16 +5148,16 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H63" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I63" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I63" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="J63" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
@@ -5087,73 +5165,73 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K64" s="30"/>
+        <v>268</v>
+      </c>
+      <c r="K64" s="33"/>
     </row>
     <row r="65" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H65" s="12">
         <v>2</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="K65" s="31"/>
+        <v>269</v>
+      </c>
+      <c r="K65" s="34"/>
     </row>
     <row r="66" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H66" s="12">
         <v>3</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="K66" s="31"/>
+        <v>270</v>
+      </c>
+      <c r="K66" s="34"/>
     </row>
     <row r="67" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H67" s="12">
         <v>4</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="K67" s="31"/>
+        <v>271</v>
+      </c>
+      <c r="K67" s="34"/>
     </row>
     <row r="68" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H68" s="12">
         <v>5</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K68" s="32"/>
+        <v>272</v>
+      </c>
+      <c r="K68" s="35"/>
     </row>
     <row r="69" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H69" s="12">
         <v>6</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="8:11" x14ac:dyDescent="0.3">
@@ -5161,13 +5239,13 @@
         <v>7</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="8:11" x14ac:dyDescent="0.3">
@@ -5175,13 +5253,13 @@
         <v>8</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="8:11" x14ac:dyDescent="0.3">
@@ -5189,13 +5267,13 @@
         <v>9</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="8:11" x14ac:dyDescent="0.3">
@@ -5203,13 +5281,13 @@
         <v>10</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="8:11" x14ac:dyDescent="0.3">
@@ -5217,10 +5295,10 @@
         <v>11</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K74" s="13"/>
     </row>
@@ -5229,13 +5307,13 @@
         <v>12</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="8:11" x14ac:dyDescent="0.3">
@@ -5243,13 +5321,13 @@
         <v>13</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="8:11" x14ac:dyDescent="0.3">
@@ -5257,13 +5335,13 @@
         <v>14</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J77" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K77" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
@@ -5330,37 +5408,37 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H108" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H112" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
@@ -5465,16 +5543,16 @@
     </row>
     <row r="161" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H161" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I161" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I161" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="J161" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="162" spans="8:11" x14ac:dyDescent="0.3">
@@ -5482,13 +5560,13 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="8:11" x14ac:dyDescent="0.3">
@@ -5496,39 +5574,39 @@
         <v>2</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="K163" s="33"/>
+        <v>285</v>
+      </c>
+      <c r="K163" s="15"/>
     </row>
     <row r="164" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H164" s="12">
         <v>3</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="197" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H197" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I197" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I197" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="J197" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K197" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="8:11" x14ac:dyDescent="0.3">
@@ -5536,13 +5614,13 @@
         <v>1</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K198" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="199" spans="8:11" x14ac:dyDescent="0.3">
@@ -5550,73 +5628,73 @@
         <v>2</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J199" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K199" s="34"/>
+        <v>298</v>
+      </c>
+      <c r="K199" s="36"/>
     </row>
     <row r="200" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H200" s="12">
         <v>3</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J200" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="K200" s="34"/>
+        <v>299</v>
+      </c>
+      <c r="K200" s="36"/>
     </row>
     <row r="201" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H201" s="12">
         <v>4</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J201" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K201" s="34"/>
+        <v>300</v>
+      </c>
+      <c r="K201" s="36"/>
     </row>
     <row r="202" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H202" s="12">
         <v>5</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J202" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K202" s="34"/>
+        <v>300</v>
+      </c>
+      <c r="K202" s="36"/>
     </row>
     <row r="203" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H203" s="12">
         <v>6</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J203" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K203" s="34"/>
+        <v>300</v>
+      </c>
+      <c r="K203" s="36"/>
     </row>
     <row r="204" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H204" s="12">
         <v>7</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J204" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K204" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="8:11" x14ac:dyDescent="0.3">
@@ -5624,13 +5702,13 @@
         <v>8</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J205" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="K205" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="K205" s="12" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.3">
@@ -5650,16 +5728,16 @@
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H232" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I232" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I232" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="J232" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K232" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.3">
@@ -5667,13 +5745,13 @@
         <v>1</v>
       </c>
       <c r="I233" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J233" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K233" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.3">
@@ -5681,13 +5759,13 @@
         <v>2</v>
       </c>
       <c r="I234" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J234" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="K234" s="35" t="s">
-        <v>335</v>
+        <v>313</v>
+      </c>
+      <c r="K234" s="12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.3">
@@ -5695,13 +5773,13 @@
         <v>3</v>
       </c>
       <c r="I235" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="K235" s="35" t="s">
-        <v>341</v>
+        <v>314</v>
+      </c>
+      <c r="K235" s="12" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.3">
@@ -5709,13 +5787,13 @@
         <v>4</v>
       </c>
       <c r="I236" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J236" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K236" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.3">
@@ -5723,13 +5801,13 @@
         <v>5</v>
       </c>
       <c r="I237" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="K237" s="35" t="s">
-        <v>336</v>
+        <v>315</v>
+      </c>
+      <c r="K237" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.3">
@@ -5737,13 +5815,13 @@
         <v>6</v>
       </c>
       <c r="I238" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J238" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="K238" s="35" t="s">
-        <v>342</v>
+        <v>316</v>
+      </c>
+      <c r="K238" s="12" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.3">
@@ -5751,13 +5829,13 @@
         <v>7</v>
       </c>
       <c r="I239" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J239" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K239" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.3">
@@ -5765,27 +5843,27 @@
         <v>8</v>
       </c>
       <c r="I240" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J240" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K240" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="241" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H241" s="12">
         <v>9</v>
       </c>
-      <c r="I241" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="J241" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="K241" s="36" t="s">
-        <v>343</v>
+      <c r="I241" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J241" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K241" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="242" spans="8:11" x14ac:dyDescent="0.3">
@@ -5793,13 +5871,13 @@
         <v>10</v>
       </c>
       <c r="I242" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J242" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K242" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="243" spans="8:11" x14ac:dyDescent="0.3">
@@ -5807,27 +5885,27 @@
         <v>11</v>
       </c>
       <c r="I243" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J243" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="K243" s="36" t="s">
-        <v>338</v>
+        <v>319</v>
+      </c>
+      <c r="K243" s="12" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="244" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H244" s="12">
         <v>12</v>
       </c>
-      <c r="I244" s="36" t="s">
-        <v>257</v>
+      <c r="I244" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="J244" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="K244" s="36" t="s">
-        <v>344</v>
+        <v>320</v>
+      </c>
+      <c r="K244" s="12" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="245" spans="8:11" x14ac:dyDescent="0.3">
@@ -5835,13 +5913,13 @@
         <v>13</v>
       </c>
       <c r="I245" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K245" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="246" spans="8:11" x14ac:dyDescent="0.3">
@@ -5849,27 +5927,27 @@
         <v>14</v>
       </c>
       <c r="I246" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J246" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="K246" s="36" t="s">
-        <v>339</v>
+        <v>321</v>
+      </c>
+      <c r="K246" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="247" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H247" s="12">
         <v>15</v>
       </c>
-      <c r="I247" s="36" t="s">
-        <v>257</v>
+      <c r="I247" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="J247" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="K247" s="36" t="s">
-        <v>345</v>
+        <v>322</v>
+      </c>
+      <c r="K247" s="12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="248" spans="8:11" x14ac:dyDescent="0.3">
@@ -5877,13 +5955,13 @@
         <v>16</v>
       </c>
       <c r="I248" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J248" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K248" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="249" spans="8:11" x14ac:dyDescent="0.3">
@@ -5891,60 +5969,60 @@
         <v>17</v>
       </c>
       <c r="I249" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="K249" s="36" t="s">
-        <v>340</v>
+        <v>323</v>
+      </c>
+      <c r="K249" s="12" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H250" s="12">
         <v>18</v>
       </c>
-      <c r="I250" s="36" t="s">
-        <v>257</v>
+      <c r="I250" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="J250" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="K250" s="36" t="s">
-        <v>346</v>
+        <v>324</v>
+      </c>
+      <c r="K250" s="12" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="251" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H251" s="12">
         <v>19</v>
       </c>
-      <c r="I251" s="36" t="s">
-        <v>257</v>
+      <c r="I251" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="J251" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="K251" s="36" t="s">
-        <v>350</v>
+        <v>325</v>
+      </c>
+      <c r="K251" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="252" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H252" s="12">
         <v>20</v>
       </c>
-      <c r="I252" s="36" t="s">
-        <v>257</v>
+      <c r="I252" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="J252" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="K252" s="36" t="s">
-        <v>351</v>
+        <v>326</v>
+      </c>
+      <c r="K252" s="12" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.3">
@@ -5954,17 +6032,17 @@
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
@@ -6047,34 +6125,147 @@
         <v>93</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H347" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I347" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="J347" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="K347" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H348" s="12">
+        <v>1</v>
+      </c>
+      <c r="I348" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J348" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="K348" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H349" s="12">
+        <v>2</v>
+      </c>
+      <c r="I349" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J349" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K349" s="13"/>
+    </row>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H350" s="12">
+        <v>3</v>
+      </c>
+      <c r="I350" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J350" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="K350" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H351" s="12">
+        <v>4</v>
+      </c>
+      <c r="I351" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J351" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K351" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H352" s="12">
+        <v>5</v>
+      </c>
+      <c r="I352" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J352" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="K352" s="13"/>
+    </row>
+    <row r="353" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H353" s="12">
+        <v>6</v>
+      </c>
+      <c r="I353" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J353" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="K353" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="354" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H354" s="12">
+        <v>7</v>
+      </c>
+      <c r="I354" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J354" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K354" s="17" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6228,10 +6419,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFA66EF-094F-4EC3-934A-1809BBC597B8}">
-  <dimension ref="B2:J63"/>
+  <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6286,7 +6477,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
@@ -6296,22 +6487,22 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
@@ -6321,96 +6512,91 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
         <v>169</v>
       </c>
     </row>
